--- a/luanvanthacsi/Excel/Template/HoiDongBaoVe.xlsx
+++ b/luanvanthacsi/Excel/Template/HoiDongBaoVe.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\chuongtrinhki1nam4\khoaluan\luanvanthacsi\luanvanthacsi\Excel\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6F393F7-BF04-4AB4-8221-F33AEAB83319}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FC12AB2-4193-4B56-B17F-2A315DD85229}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6487A9B8-8C25-470C-A8D3-B7D20C109FE7}"/>
   </bookViews>
@@ -27,9 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
-    <t>DANH SÁCH HỘI ĐỒNG CHẤM LUẬN VĂN K29 HÀ NỘI + TÂY BẮC</t>
-  </si>
-  <si>
     <t>STT</t>
   </si>
   <si>
@@ -136,6 +133,9 @@
   </si>
   <si>
     <t>KEY_STAFFIMPORT</t>
+  </si>
+  <si>
+    <t>DANH SÁCH HỘI ĐỒNG CHẤM LUẬN VĂN</t>
   </si>
 </sst>
 </file>
@@ -606,7 +606,7 @@
   <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -628,7 +628,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -645,87 +645,87 @@
     </row>
     <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="J2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>8</v>
-      </c>
       <c r="L2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="M2" s="4" t="s">
         <v>32</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="D3" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="10" t="s">
+      <c r="E3" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="F3" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="10" t="s">
-        <v>26</v>
-      </c>
       <c r="G3" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H3" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="J3" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="J3" s="10" t="s">
+      <c r="K3" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="K3" s="10" t="s">
-        <v>31</v>
-      </c>
       <c r="L3" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="M3" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="M3" s="10" t="s">
+      <c r="N3" s="10" t="s">
         <v>35</v>
-      </c>
-      <c r="N3" s="10" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -733,33 +733,33 @@
         <v>1</v>
       </c>
       <c r="B4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="D4" s="8" t="s">
         <v>10</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>11</v>
       </c>
       <c r="E4" s="8"/>
       <c r="F4" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="H4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="I4" s="7" t="s">
         <v>14</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>15</v>
       </c>
       <c r="J4" s="7"/>
       <c r="K4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="L4" s="8" t="s">
         <v>16</v>
-      </c>
-      <c r="L4" s="8" t="s">
-        <v>17</v>
       </c>
       <c r="M4" s="7"/>
     </row>

--- a/luanvanthacsi/Excel/Template/HoiDongBaoVe.xlsx
+++ b/luanvanthacsi/Excel/Template/HoiDongBaoVe.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\chuongtrinhki1nam4\khoaluan\luanvanthacsi\luanvanthacsi\Excel\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FC12AB2-4193-4B56-B17F-2A315DD85229}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BEBCADB-719C-44D7-8135-6955D472D938}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6487A9B8-8C25-470C-A8D3-B7D20C109FE7}"/>
+    <workbookView xWindow="-28920" yWindow="-1380" windowWidth="29040" windowHeight="15720" xr2:uid="{6487A9B8-8C25-470C-A8D3-B7D20C109FE7}"/>
   </bookViews>
   <sheets>
     <sheet name="HoiDong" sheetId="1" r:id="rId1"/>
@@ -96,15 +96,6 @@
     <t>StudentName</t>
   </si>
   <si>
-    <t>Branch</t>
-  </si>
-  <si>
-    <t>InstructorOne</t>
-  </si>
-  <si>
-    <t>OnstructorTwo</t>
-  </si>
-  <si>
     <t>Phản biện 3</t>
   </si>
   <si>
@@ -132,10 +123,19 @@
     <t>ScientistTwo</t>
   </si>
   <si>
-    <t>KEY_STAFFIMPORT</t>
-  </si>
-  <si>
     <t>DANH SÁCH HỘI ĐỒNG CHẤM LUẬN VĂN</t>
+  </si>
+  <si>
+    <t>KEY_EVALUATIONIMPORT</t>
+  </si>
+  <si>
+    <t>InstructorIdOne</t>
+  </si>
+  <si>
+    <t>InstructorIdTwo</t>
+  </si>
+  <si>
+    <t>SpecialiezdName</t>
   </si>
 </sst>
 </file>
@@ -606,15 +606,15 @@
   <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.5703125" customWidth="1"/>
-    <col min="2" max="2" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="148.5703125" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="32" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="15" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="22.140625" customWidth="1"/>
     <col min="6" max="6" width="25.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21.140625" bestFit="1" customWidth="1"/>
@@ -623,12 +623,12 @@
     <col min="11" max="11" width="20" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="20" customWidth="1"/>
     <col min="13" max="13" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="0" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -672,19 +672,19 @@
         <v>6</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="K2" s="4" t="s">
         <v>7</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="39" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>17</v>
       </c>
@@ -695,37 +695,37 @@
         <v>18</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="G3" s="10" t="s">
         <v>21</v>
       </c>
       <c r="H3" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I3" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="J3" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="K3" s="10" t="s">
+      <c r="L3" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="L3" s="10" t="s">
+      <c r="M3" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="N3" s="10" t="s">
         <v>33</v>
-      </c>
-      <c r="M3" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="N3" s="10" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
